--- a/xlsx/第一次世界大战_intext.xlsx
+++ b/xlsx/第一次世界大战_intext.xlsx
@@ -15,171 +15,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1113">
   <si>
     <t>第一次世界大战</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%88%B0%E7%B7%9A_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
+  </si>
+  <si>
+    <t>西方战线 (第一次世界大战)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
+  </si>
+  <si>
+    <t>堑壕战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%85%8B</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E6%B3%A2%E5%88%A9%E4%B9%8B%E6%88%98</t>
+  </si>
+  <si>
+    <t>加里波利之战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%9B%B7</t>
+  </si>
+  <si>
+    <t>水雷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>英国皇家海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%89%A6</t>
+  </si>
+  <si>
+    <t>战舰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AF%92%E9%9D%A2%E5%85%B7</t>
+  </si>
+  <si>
+    <t>防毒面具</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>凡尔赛条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%97%A5%E8%80%B3%E6%9B%BC%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>圣日耳曼条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BC%8A%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>纳伊条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E4%BA%9A%E5%86%9C%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>特里亚农条约</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93Austrian_Peace_Treaty_(1921)</t>
+  </si>
+  <si>
+    <t>en-U.S.–Austrian Peace Treaty (1921)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93German_Peace_Treaty_(1921)</t>
+  </si>
+  <si>
+    <t>en-U.S.–German Peace Treaty (1921)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93Hungarian_Peace_Treaty_(1921)</t>
+  </si>
+  <si>
+    <t>en-U.S.–Hungarian Peace Treaty (1921)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>洛桑条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%B8%89%E5%A4%A7%E5%B3%B6%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>太平洋三大岛群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>协约国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德意志帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>俄罗斯帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>奥斯曼帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>奥匈帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%88%86%E8%A3%82</t>
+  </si>
+  <si>
+    <t>奥斯曼帝国的分裂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际联盟</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_第一次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%88%B0%E7%B7%9A_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
-  </si>
-  <si>
-    <t>西方戰線 (第一次世界大戰)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
-  </si>
-  <si>
-    <t>堑壕战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%85%8B</t>
-  </si>
-  <si>
-    <t>坦克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E6%B3%A2%E5%88%A9%E4%B9%8B%E6%88%98</t>
-  </si>
-  <si>
-    <t>加里波利之战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%9B%B7</t>
-  </si>
-  <si>
-    <t>水雷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>英國皇家海軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%89%A6</t>
-  </si>
-  <si>
-    <t>戰艦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AF%92%E9%9D%A2%E5%85%B7</t>
-  </si>
-  <si>
-    <t>防毒面具</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>凡尔赛条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%97%A5%E8%80%B3%E6%9B%BC%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>圣日耳曼条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BC%8A%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>纳伊条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E4%BA%9A%E5%86%9C%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>特里亚农条约</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93Austrian_Peace_Treaty_(1921)</t>
-  </si>
-  <si>
-    <t>en-U.S.–Austrian Peace Treaty (1921)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93German_Peace_Treaty_(1921)</t>
-  </si>
-  <si>
-    <t>en-U.S.–German Peace Treaty (1921)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/U.S.%E2%80%93Hungarian_Peace_Treaty_(1921)</t>
-  </si>
-  <si>
-    <t>en-U.S.–Hungarian Peace Treaty (1921)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A1%91%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>洛桑条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%B8%89%E5%A4%A7%E5%B3%B6%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>太平洋三大島群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>協約國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德意志帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>俄罗斯帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>奥斯曼帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8C%88%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>奥匈帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%88%86%E8%A3%82</t>
-  </si>
-  <si>
-    <t>奧斯曼帝國的分裂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>國際聯盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第三共和國</t>
+    <t>法兰西第三共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
@@ -203,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9B%BD</t>
@@ -215,19 +218,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(1861%E5%B9%B4%E2%80%931946%E5%B9%B4)</t>
   </si>
   <si>
-    <t>意大利王國 (1861年–1946年)</t>
+    <t>意大利王国 (1861年–1946年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E7%AC%AC%E4%B8%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙第一共和國</t>
+    <t>葡萄牙第一共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬尼亞王國</t>
+    <t>罗马尼亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%BF%97%E7%8E%8B%E5%9B%BD</t>
@@ -239,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8E%8B%E5%9B%BD</t>
@@ -251,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
@@ -263,15 +266,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第一次世界大戰)</t>
+    <t>同盟国 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>德意志帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%85%8B%E5%88%97%E5%AD%9F%E6%A2%AD</t>
   </si>
   <si>
-    <t>喬治·克列孟梭</t>
+    <t>乔治·克列孟梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%C2%B7%E6%99%AE%E6%81%A9%E5%8A%A0%E8%8E%B1</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%94%E4%B8%96</t>
   </si>
   <si>
-    <t>喬治五世</t>
+    <t>乔治五世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E9%98%BF%E6%96%AF%E5%A5%8E%E6%96%AF</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%E4%B8%80%E4%B8%96_(%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E)</t>
   </si>
   <si>
-    <t>斐迪南一世 (羅馬尼亞)</t>
+    <t>斐迪南一世 (罗马尼亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E4%BA%8C%E4%B8%96_(%E5%BE%B7%E5%9B%BD)</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E6%88%B0%E5%BD%B9_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>巴爾幹戰役 (第一次世界大戰)</t>
+    <t>巴尔干战役 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%96%B9%E6%88%98%E7%BA%BF_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98)</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E6%88%B0%E5%8D%80_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>中東戰區 (第一次世界大戰)</t>
+    <t>中东战区 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E6%88%B0%E5%BD%B9_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>高加索戰役 (第一次世界大戰)</t>
+    <t>高加索战役 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>美索不達米亞戰役</t>
+    <t>美索不达米亚战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%88%E5%8F%8A%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E6%88%98%E5%BD%B9</t>
@@ -431,25 +431,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E6%88%B0%E5%8D%80_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>非洲戰區 (第一次世界大戰)</t>
+    <t>非洲战区 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E%E6%88%B0%E5%BD%B9_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>西非戰役 (第一次世界大戰)</t>
+    <t>西非战役 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -461,27 +461,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%8B%89%E7%83%AD%E7%AA%9D%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
@@ -521,13 +512,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歐洲歷史</t>
+    <t>欧洲历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%BB%91%E5%8E%86%E5%8F%B2</t>
@@ -539,31 +530,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>塞爾維亞公國</t>
+    <t>塞尔维亚公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>波斯尼亞地區</t>
+    <t>波斯尼亚地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>柏林會議</t>
+    <t>柏林会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
@@ -611,31 +602,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%96%AF%E6%8B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛斯拉夫主義</t>
+    <t>泛斯拉夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E6%97%A5%E8%80%B3%E6%9B%BC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>泛日耳曼主義</t>
+    <t>泛日耳曼主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>普法戰爭</t>
+    <t>普法战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%89%98%C2%B7%E9%A6%AE%C2%B7%E4%BF%BE%E6%96%AF%E9%BA%A5</t>
   </si>
   <si>
-    <t>奧托·馮·俾斯麥</t>
+    <t>奥托·冯·俾斯麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91%E4%B8%89%E4%B8%96</t>
@@ -647,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>法蘭克福條約</t>
+    <t>法兰克福条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%96%A9%E6%96%AF-%E6%B4%9B%E6%9E%97</t>
   </si>
   <si>
-    <t>阿爾薩斯-洛林</t>
+    <t>阿尔萨斯-洛林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%83%8E</t>
@@ -671,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>凡爾賽宮</t>
+    <t>凡尔赛宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E4%BB%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>復仇主義</t>
+    <t>复仇主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1878%E5%B9%B4%E6%9F%8F%E6%9E%97%E4%BC%9A%E8%AE%AE</t>
@@ -695,19 +686,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧斯曼帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>利益衝突</t>
+    <t>利益冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>赫塞哥維納</t>
+    <t>赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A5%E5%90%8C%E7%9B%9F</t>
@@ -719,21 +707,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9B%BD_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98)</t>
   </si>
   <si>
-    <t>同盟国 (第一次世界大战)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>德國總理</t>
+    <t>德国总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -749,31 +731,25 @@
     <t>https://zh.wikipedia.org/wiki/1878%E5%B9%B4%E6%9F%8F%E6%9E%97%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>1878年柏林會議</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A7%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>德奧同盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>三國同盟</t>
+    <t>三国同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E4%BF%9D%E9%9A%AA%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>再保險條約</t>
+    <t>再保险条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E4%BF%84%E5%90%8C%E7%9B%9F</t>
@@ -785,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E6%A6%AE%E5%AD%A4%E7%AB%8B</t>
   </si>
   <si>
-    <t>光榮孤立</t>
+    <t>光荣孤立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -803,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>地中海協定</t>
+    <t>地中海协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -815,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BE%B7%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>亞德里亞海</t>
+    <t>亚德里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
@@ -827,25 +803,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>英法協約</t>
+    <t>英法协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第一次摩洛哥危機</t>
+    <t>第一次摩洛哥危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>日俄戰爭</t>
+    <t>日俄战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E4%BF%84%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>英俄條約</t>
+    <t>英俄条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B8%9D%E5%9B%BD</t>
@@ -857,31 +833,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B%E5%8D%94%E7%B4%84</t>
   </si>
   <si>
-    <t>三國協約</t>
+    <t>三国协约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新帝國主義</t>
+    <t>新帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%89%98%C2%B7%E5%86%AF%C2%B7%E4%BF%BE%E6%96%AF%E9%BA%A6</t>
   </si>
   <si>
-    <t>奥托·冯·俾斯麦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E7%AD%96</t>
@@ -893,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%88%97%E5%BC%B7%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>第一次世界大戰列強軍備競賽</t>
+    <t>第一次世界大战列强军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%95%8F%E8%88%B0</t>
@@ -905,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%91%A9%E6%B4%9B%E5%93%A5%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第二次摩洛哥危機</t>
+    <t>第二次摩洛哥危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E8%A7%84%E5%86%9B</t>
@@ -923,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>丹吉爾</t>
+    <t>丹吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%B5%AB%E8%A5%BF%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>阿爾赫西拉斯</t>
+    <t>阿尔赫西拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%96%AF</t>
@@ -941,25 +914,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%B9%E8%99%9F%E7%A0%B2%E8%89%A6</t>
   </si>
   <si>
-    <t>豹號砲艦</t>
+    <t>豹号砲舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8A%A0%E8%BF%AA%E7%88%BE</t>
   </si>
   <si>
-    <t>阿加迪爾</t>
+    <t>阿加迪尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>非斯條約</t>
+    <t>非斯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>被保護國</t>
+    <t>被保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%8D%B1%E6%9C%BA</t>
@@ -977,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
   </si>
   <si>
-    <t>馬其頓</t>
+    <t>马其顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7%E6%B5%B7%E5%B3%A1</t>
@@ -1001,31 +974,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E7%88%BE%E5%B9%B9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次巴爾幹戰爭</t>
+    <t>第一次巴尔干战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%90%8C%E7%9B%9F</t>
   </si>
   <si>
-    <t>巴爾幹同盟</t>
+    <t>巴尔干同盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1913%E5%B9%B4%E5%80%AB%E6%95%A6%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1913年倫敦條約</t>
+    <t>1913年伦敦条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1</t>
@@ -1037,31 +1010,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%B4%E7%88%BE%E5%B9%B9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次巴爾幹戰爭</t>
+    <t>第二次巴尔干战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8A%A0%E5%8B%92%E6%96%AF%E7%89%B9%E6%A2%9D%E7%B4%84_(1913%E5%B9%B4)</t>
   </si>
   <si>
-    <t>布加勒斯特條約 (1913年)</t>
+    <t>布加勒斯特条约 (1913年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%B8%83%E7%BE%85%E5%8A%A0</t>
   </si>
   <si>
-    <t>多布羅加</t>
+    <t>多布罗加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%81%94%E6%B2%B3%E9%A6%AC%E5%85%B6%E9%A0%93</t>
   </si>
   <si>
-    <t>發達河馬其頓</t>
+    <t>发达河马其顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Vardar_Macedonia</t>
@@ -1073,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E6%9E%97%E9%A6%AC%E5%85%B6%E9%A0%93</t>
   </si>
   <si>
-    <t>皮林馬其頓</t>
+    <t>皮林马其顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aegean_Macedonia</t>
@@ -1097,19 +1070,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%89%8B%E9%BB%A8</t>
   </si>
   <si>
-    <t>黑手黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E7%86%B1%E7%AA%A9%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>薩拉熱窩事件</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92</t>
   </si>
   <si>
-    <t>最後通牒</t>
+    <t>最后通牒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E9%87%8C%E8%8A%AC%E8%AE%A1%E5%88%92</t>
@@ -1127,13 +1094,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>鐵路運輸</t>
+    <t>铁路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>阿爾薩斯</t>
+    <t>阿尔萨斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9E%97</t>
@@ -1145,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E4%B8%83%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>第十七號計劃</t>
+    <t>第十七号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%AF%9B%E5%A5%87</t>
@@ -1157,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -1169,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>波爾多</t>
+    <t>波尔多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E9%A9%AC%E6%81%A9%E6%B2%B3%E6%88%98%E5%BD%B9</t>
@@ -1211,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%A7%86%E6%B2%B3%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>索姆河戰役</t>
+    <t>索姆河战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1229,19 +1196,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%88%B6%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>無限制潛艇戰</t>
+    <t>无限制潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87</t>
   </si>
   <si>
-    <t>潛艇</t>
+    <t>潜艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%9B%B7</t>
   </si>
   <si>
-    <t>魚雷</t>
+    <t>鱼雷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E9%BB%98%E6%9B%BC%E7%94%B5%E6%8A%A5</t>
@@ -1253,9 +1220,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E9%99%90%E5%88%B6%E6%BD%9C%E8%89%87%E6%88%98</t>
   </si>
   <si>
-    <t>无限制潜艇战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A5%87</t>
   </si>
   <si>
@@ -1271,19 +1235,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>蘭斯</t>
+    <t>兰斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%93%A6%E6%9D%BE</t>
   </si>
   <si>
-    <t>蘇瓦松</t>
+    <t>苏瓦松</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E8%B4%9D%E5%B0%94%C2%B7%E5%B0%BC%E7%BB%B4%E5%8B%92</t>
@@ -1301,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%9C%A0</t>
   </si>
   <si>
-    <t>亞眠</t>
+    <t>亚眠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%81%A9%E6%B2%B3</t>
@@ -1319,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>東普魯士</t>
+    <t>东普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -1337,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%A7%91%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>布科維納</t>
+    <t>布科维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%83%AD%E6%A2%85%E5%B8%8C%E5%B0%94</t>
@@ -1361,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B2%99</t>
   </si>
   <si>
-    <t>華沙</t>
+    <t>华沙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%96%AF%E7%89%B9</t>
@@ -1373,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%88%BE%E8%AB%BE</t>
   </si>
   <si>
-    <t>維爾諾</t>
+    <t>维尔诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0</t>
@@ -1415,13 +1379,13 @@
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E4%BF%84%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1917年俄國革命</t>
+    <t>1917年俄国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%A5%B4%E5%88%B6</t>
   </si>
   <si>
-    <t>農奴制</t>
+    <t>农奴制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -1433,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E4%BA%8C%E6%9C%88%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>俄國二月革命</t>
+    <t>俄国二月革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E5%85%8B%E4%BC%A6%E6%96%AF%E5%9F%BA</t>
@@ -1445,33 +1409,27 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>俄國臨時政府</t>
+    <t>俄国临时政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E7%BA%8C%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>繼續戰爭</t>
+    <t>继续战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5%E6%9B%86</t>
   </si>
   <si>
-    <t>儒略曆</t>
+    <t>儒略历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E4%BB%80%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>布爾什維克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -1481,31 +1439,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B6%AD%E5%9F%83%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇維埃俄國</t>
+    <t>苏维埃俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E6%96%AF%E7%89%B9-%E7%AB%8B%E9%99%B6%E5%A4%AB%E6%96%AF%E5%85%8B%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>布列斯特-立陶夫斯克條約</t>
+    <t>布列斯特-立陶夫斯克条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%BF%84</t>
   </si>
   <si>
-    <t>蘇俄</t>
+    <t>苏俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>塞爾維亞戰役</t>
+    <t>塞尔维亚战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>馬其頓戰役</t>
+    <t>马其顿战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1535,13 +1493,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>黑海海峽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%E6%B3%A2%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>加里波利半島</t>
+    <t>加里波利半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E8%BE%BE</t>
@@ -1559,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -1607,19 +1562,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E9%A6%AC%E6%8F%90%E4%BA%9E</t>
   </si>
   <si>
-    <t>達爾馬提亞</t>
+    <t>达尔马提亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE</t>
   </si>
   <si>
-    <t>聖馬利諾</t>
+    <t>圣马利诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%9F%BA%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>克基拉島</t>
+    <t>克基拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8A%A0%E5%8B%92%E6%96%AF%E7%89%B9</t>
@@ -1631,49 +1586,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E6%88%B0%E5%BD%B9_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>羅馬尼亞戰役 (第一次世界大戰)</t>
+    <t>罗马尼亚战役 (第一次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>輕巡洋艦</t>
+    <t>轻巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
+    <t>波罗的海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BE%B7%E8%98%AD%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>日德蘭海戰</t>
+    <t>日德兰海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>戰術</t>
+    <t>战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>軍事戰略</t>
+    <t>军事战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>青島戰役</t>
+    <t>青岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E5%8D%88%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>甲午戰爭</t>
+    <t>甲午战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%97%A5%E5%90%8C%E7%9B%9F</t>
@@ -1727,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%89%98%E9%87%8C%E5%A5%A7%C2%B7%E7%B6%AD%E5%85%A7%E6%89%98%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>維托里奧·維內托戰役</t>
+    <t>维托里奥·维内托战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97-%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志-奧地利共和國</t>
+    <t>德意志-奥地利共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1745,7 +1700,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>德國革命</t>
+    <t>德国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E5%86%AF%C2%B7%E5%85%B4%E7%99%BB%E5%A0%A1</t>
@@ -1769,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>德國社會民主黨</t>
+    <t>德国社会民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%B0%A2%E5%BE%B7%E6%9B%BC</t>
@@ -1781,13 +1736,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E9%80%A3%C2%B7%E9%A6%AE%C2%B7%E5%B7%B4%E7%99%BB</t>
   </si>
   <si>
-    <t>馬克西米連·馮·巴登</t>
+    <t>马克西米连·冯·巴登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E8%BE%B9%E5%81%9C%E6%88%98%E5%8D%8F%E5%AE%9A</t>
@@ -1811,19 +1766,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%8B%9E%E5%90%88%C2%B7%E5%96%AC%E6%B2%BB</t>
   </si>
   <si>
-    <t>大衛·勞合·喬治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽和約</t>
+    <t>凡尔赛和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E9%B2%81%E7%99%BB%E9%81%93%E5%A4%AB</t>
@@ -1835,85 +1787,76 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%97%A5%E8%80%B3%E6%9B%BC%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>聖日耳曼條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%A5%E4%BE%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>訥依條約</t>
+    <t>讷依条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%90%B4%E6%B5%B7</t>
   </si>
   <si>
-    <t>愛琴海</t>
+    <t>爱琴海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E4%BA%9E%E8%BE%B2%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>特里亞農條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E4%BD%9B%E7%88%BE%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>色佛爾條約</t>
+    <t>色佛尔条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E6%89%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>安那托利亞</t>
+    <t>安那托利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>凡爾賽體系</t>
+    <t>凡尔赛体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>大蕭條</t>
+    <t>大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%A8%81%E6%96%AF%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>道威斯計劃</t>
+    <t>道威斯计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>楊計畫</t>
+    <t>杨计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>帝國</t>
+    <t>帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -1931,13 +1874,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%8A%A1</t>
@@ -1949,31 +1892,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>債權</t>
+    <t>债权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%B7%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>膠州灣</t>
+    <t>胶州湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>山東半島</t>
+    <t>山东半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>無產階級革命</t>
+    <t>无产阶级革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>無產階級專政</t>
+    <t>无产阶级专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E8%81%94%E9%82%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1985,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9B%BD</t>
@@ -1997,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>西烏克蘭</t>
+    <t>西乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -2033,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產主義政黨</t>
+    <t>共产主义政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89%E6%94%BF%E6%9D%83</t>
@@ -2045,7 +1988,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E5%88%BA%E5%9C%A8%E8%83%8C%E4%BC%A0%E8%AF%B4</t>
@@ -2057,9 +2000,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽條約</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E4%BA%BA</t>
   </si>
   <si>
@@ -2075,31 +2015,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%B0%8D%E4%B8%AD%E5%9C%8B%E7%9A%84%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>第一次世界大戰對中國的影響</t>
+    <t>第一次世界大战对中国的影响</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%9A%E5%AD%90%E8%B3%A0%E6%AC%BE</t>
   </si>
   <si>
-    <t>庚子賠款</t>
+    <t>庚子赔款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%80%E6%A2%9D</t>
   </si>
   <si>
-    <t>二十一條</t>
+    <t>二十一条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%9C%E7%9C%81</t>
@@ -2111,25 +2051,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>山東問題</t>
+    <t>山东问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%9B%9B%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>五四運動</t>
+    <t>五四运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%B1%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>國共內戰</t>
+    <t>国共内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%85%B5</t>
@@ -2147,31 +2087,31 @@
     <t>https://zh.wikipedia.org/wiki/1%E7%BE%8E%E5%88%86%E7%A1%AC%E5%B9%A3</t>
   </si>
   <si>
-    <t>1美分硬幣</t>
+    <t>1美分硬币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E5%8A%A9%E9%87%91%E9%80%B2%E8%BB%8D%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>補助金進軍事件</t>
+    <t>补助金进军事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>勞動力</t>
+    <t>劳动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -2201,13 +2141,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E7%91%AA%E5%88%A9%E4%BA%9E%C2%B7%E9%9B%B7%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>埃里希·瑪利亞·雷馬克</t>
+    <t>埃里希·玛利亚·雷马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B7%9A%E7%84%A1%E6%88%B0%E4%BA%8B</t>
   </si>
   <si>
-    <t>西線無戰事</t>
+    <t>西线无战事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%BF%AB%E4%B9%90_(%E7%94%B5%E5%BD%B1)</t>
@@ -2219,7 +2159,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B7%9A%E7%84%A1%E6%88%B0%E4%BA%8B_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>西線無戰事 (電影)</t>
+    <t>西线无战事 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E9%95%BF%E7%9A%84%E5%A9%9A%E7%BA%A6</t>
@@ -2231,9 +2171,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E5%BF%AB%E6%A8%82_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>聖誕快樂 (電影)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E7%94%B7%E7%88%B5_(%E7%94%B5%E5%BD%B1)</t>
   </si>
   <si>
@@ -2249,13 +2186,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E6%98%A5%E5%A4%A2</t>
   </si>
   <si>
-    <t>戰地春夢</t>
+    <t>战地春梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E9%90%98%E8%81%B2</t>
   </si>
   <si>
-    <t>戰地鐘聲</t>
+    <t>战地钟声</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Testament_of_Youth_(film)</t>
@@ -2267,13 +2204,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%8A%9B%E5%A5%B3%E8%B6%85%E4%BA%BA_(2017%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>神力女超人 (2017年電影)</t>
+    <t>神力女超人 (2017年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E9%A2%A8%E9%9B%B21</t>
   </si>
   <si>
-    <t>戰地風雲1</t>
+    <t>战地风云1</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9E%8B%E6%B5%81%E8%A1%8C%E6%80%A7%E6%84%9F%E5%86%92</t>
@@ -2291,13 +2228,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
   </si>
   <si>
-    <t>中国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -2309,13 +2243,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E4%BD%9B%E5%B0%94%E6%9D%A1%E7%BA%A6</t>
   </si>
   <si>
-    <t>色佛尔条约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>土耳其獨立戰爭</t>
+    <t>土耳其独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2327,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
-    <t>法國本土</t>
+    <t>法国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -2345,13 +2276,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界戰爭列表</t>
+    <t>世界战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0%E5%8F%83%E6%88%B0%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>第一次世界大戰參戰國列表</t>
+    <t>第一次世界大战参战国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-%E6%BD%9C%E8%89%87</t>
@@ -2363,15 +2294,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%92%82%E4%BA%9E%E8%99%9F</t>
   </si>
   <si>
-    <t>米蒂亞號</t>
+    <t>米蒂亚号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%88%98%E7%BA%BF_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98)</t>
   </si>
   <si>
-    <t>西方战线 (第一次世界大战)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E5%9C%BA_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98)</t>
   </si>
   <si>
@@ -2405,15 +2333,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E7%B4%84%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>協約國列表</t>
+    <t>协约国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E4%B8%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>法兰西第三共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0%E5%92%8C%E7%88%B1%E5%B0%94%E5%85%B0%E8%81%94%E5%90%88%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -2447,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>紐芬蘭</t>
+    <t>纽芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -2477,9 +2402,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华民国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -2501,15 +2423,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B%E5%B0%8D%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E7%9A%84%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92</t>
   </si>
   <si>
-    <t>奧匈帝國對塞爾維亞的最後通牒</t>
+    <t>奥匈帝国对塞尔维亚的最后通牒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E5%8D%8F%E7%BA%A6</t>
   </si>
   <si>
-    <t>英法协约</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
@@ -2519,31 +2438,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%9C%9F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>義土戰爭</t>
+    <t>义土战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%B0%94%E5%B9%B2%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>第一次巴尔干战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%B4%E5%B0%94%E5%B9%B2%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>第二次巴尔干战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%97%A5%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>列日戰役</t>
+    <t>列日战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E8%83%BD%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>坦能堡戰役</t>
+    <t>坦能堡战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Sarikamish</t>
@@ -2555,21 +2468,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B2%9B%E6%88%98%E5%BD%B9</t>
   </si>
   <si>
-    <t>青岛战役</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%A7%86%E6%B2%B3%E6%88%98%E5%BD%B9</t>
   </si>
   <si>
-    <t>索姆河战役</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BE%B7%E5%85%B0%E6%B5%B7%E6%88%98</t>
   </si>
   <si>
-    <t>日德兰海战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E9%B2%81%E8%A5%BF%E6%B4%9B%E5%A4%AB%E6%94%BB%E5%8A%BF</t>
   </si>
   <si>
@@ -2585,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%B1%B3%E5%B6%BA%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>維米嶺戰役</t>
+    <t>维米岭战役</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Battle_of_Passchendaele</t>
@@ -2609,19 +2513,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%B6%AD%E7%88%BE%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>尼維爾攻勢</t>
+    <t>尼维尔攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>皇帝會戰</t>
+    <t>皇帝会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%97%A5%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>百日攻勢</t>
+    <t>百日攻势</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Meuse-Argonne_Offensive</t>
@@ -2633,7 +2537,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%BE%B7%E6%B4%9B%E6%96%AF%E5%81%9C%E6%88%B0%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>穆德洛斯停戰協定</t>
+    <t>穆德洛斯停战协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E9%A9%AC%E5%88%A9%E5%85%B9%E5%8F%9B%E5%8F%98</t>
@@ -2651,13 +2555,10 @@
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E4%BF%84%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1917年俄国革命</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>芬蘭內戰</t>
+    <t>芬兰内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Greater_Poland_Uprising_(1918%E2%80%9319)</t>
@@ -2675,7 +2576,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%9C%9F%E6%88%B0%E7%88%AD_(1919-1922%E5%B9%B4)</t>
   </si>
   <si>
-    <t>希土戰爭 (1919-1922年)</t>
+    <t>希土战争 (1919-1922年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%86%85%E6%88%98</t>
@@ -2723,9 +2624,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%B9%E5%A3%95%E6%88%B0</t>
   </si>
   <si>
-    <t>塹壕戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%88%86%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -2735,13 +2633,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80%E4%BC%91%E6%88%B0</t>
   </si>
   <si>
-    <t>聖誕節休戰</t>
+    <t>圣诞节休战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A8%AE%E6%97%8F%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>亞美尼亞種族大屠殺</t>
+    <t>亚美尼亚种族大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%90%E6%9D%80%E4%BA%9A%E8%BF%B0%E4%BA%BA</t>
@@ -2795,7 +2693,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -2813,7 +2711,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -2855,13 +2753,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -2885,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E7%BA%A6%E5%9B%BD%E6%AD%A6%E8%A3%85%E5%B9%B2%E6%B6%89%E4%BF%84%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -2909,13 +2807,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -2939,25 +2837,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -2969,7 +2867,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -2981,7 +2879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -3005,37 +2903,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>大日本帝國海軍</t>
+    <t>大日本帝国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%86%9B%E7%9C%81</t>
@@ -3047,21 +2945,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BB%A4%E9%83%A8_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>軍令部 (日本海軍)</t>
+    <t>军令部 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%A6%E6%94%BF%E6%9C%AC%E9%83%A8</t>
   </si>
   <si>
-    <t>艦政本部</t>
+    <t>舰政本部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E7%9C%81</t>
   </si>
   <si>
-    <t>海軍省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%87%E5%AE%88%E5%BA%9C_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E5%86%9B)</t>
   </si>
   <si>
@@ -3071,85 +2966,85 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E6%B8%AF%E9%83%A8_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>要港部 (日本海軍)</t>
+    <t>要港部 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>聯合艦隊</t>
+    <t>联合舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9D%B1%E6%96%B9%E9%9D%A2%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>北東方面艦隊</t>
+    <t>北东方面舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%96%B9%E9%9D%A2%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>中部太平洋方面艦隊</t>
+    <t>中部太平洋方面舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9D%B1%E6%96%B9%E9%9D%A2%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>南東方面艦隊</t>
+    <t>南东方面舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%A5%BF%E6%96%B9%E9%9D%A2%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>南西方面艦隊</t>
+    <t>南西方面舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E6%96%B9%E9%9D%A2%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>第十方面艦隊</t>
+    <t>第十方面舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%89%A6%E9%9A%8A_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第一艦隊 (日本海軍)</t>
+    <t>第一舰队 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E8%89%A6%E9%9A%8A_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第二艦隊 (日本海軍)</t>
+    <t>第二舰队 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E8%89%A6%E9%9A%8A_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第三艦隊 (日本海軍)</t>
+    <t>第三舰队 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%83%E8%89%A6%E9%9A%8A_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第七艦隊 (日本海軍)</t>
+    <t>第七舰队 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%88%AA%E7%A9%BA%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>第一航空艦隊</t>
+    <t>第一航空舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC11%E8%88%AA%E7%A9%BA%E8%89%A6%E9%9A%8A_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>第11航空艦隊 (日本海軍)</t>
+    <t>第11航空舰队 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%82%99%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>常備艦隊</t>
+    <t>常备舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B8%85%E8%88%B0%E9%98%9F</t>
@@ -3161,7 +3056,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E9%81%A3%E5%A4%96%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>第一遣外艦隊</t>
+    <t>第一遣外舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%A3%E8%88%B0%E9%98%9F</t>
@@ -3179,33 +3074,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>大日本帝國海軍航空隊列表</t>
+    <t>大日本帝国海军航空队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E5%85%B5%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>海軍兵學校</t>
+    <t>海军兵学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E6%A9%9F%E9%97%9C%E5%AD%B8%E6%A0%A1_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>海軍機關學校 (日本海軍)</t>
+    <t>海军机关学校 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E5%A4%A7%E5%AD%B8%E6%A0%A1_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>海軍大學校 (日本海軍)</t>
+    <t>海军大学校 (日本海军)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE%E5%AE%88%E5%BA%9C_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E8%BB%8D)</t>
   </si>
   <si>
-    <t>鎮守府 (日本海軍)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%85%B5%E5%9B%A2_(%E6%97%A5%E6%9C%AC%E6%B5%B7%E5%86%9B)</t>
   </si>
   <si>
@@ -3221,15 +3113,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E5%8D%88%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>甲午战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BF%84%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>日俄战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -3239,13 +3125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%B5%B7%E8%BB%8D%E8%89%A6%E8%89%87%E4%B8%80%E8%A6%BD</t>
   </si>
   <si>
-    <t>大日本帝國海軍艦艇一覽</t>
+    <t>大日本帝国海军舰艇一览</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%B5%B7%E8%BB%8D%E8%89%A6%E8%89%87%E9%A1%9E%E5%88%A5%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>大日本帝國海軍艦艇類別變遷</t>
+    <t>大日本帝国海军舰艇类别变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9B%BD%E6%B5%B7%E5%86%9B%E8%A3%85%E5%A4%87%E5%88%97%E8%A1%A8</t>
@@ -3269,19 +3155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%89%A6%E9%9A%8A%E5%8F%B8%E4%BB%A4%E9%95%B7%E5%AE%98</t>
   </si>
   <si>
-    <t>聯合艦隊司令長官</t>
+    <t>联合舰队司令长官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E5%A4%A7%E8%87%A3_(%E6%97%A5%E6%9C%AC)</t>
   </si>
   <si>
-    <t>海軍大臣 (日本)</t>
+    <t>海军大臣 (日本)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B%E6%B5%B7%E8%BB%8D%E8%BB%8D%E4%BA%BA%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>大日本帝國海軍軍人列表</t>
+    <t>大日本帝国海军军人列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E6%9C%88%E9%9D%A9%E5%91%BD</t>
@@ -3293,7 +3179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%8C%E6%9C%88%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國二月革命</t>
+    <t>法国二月革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
@@ -3305,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>復活行動</t>
+    <t>复活行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -3317,19 +3203,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E9%B4%89%E7%89%87%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次鴉片戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>克里米亞戰爭</t>
+    <t>克里米亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E6%AD%A6%E8%A3%9D%E5%B9%B2%E6%B6%89%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
   </si>
   <si>
-    <t>法國武裝干涉墨西哥</t>
+    <t>法国武装干涉墨西哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -3341,19 +3224,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%9C%BB%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>南圻遠征</t>
+    <t>南圻远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%99%E5%AF%85%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>丙寅洋擾</t>
+    <t>丙寅洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%9C%BB%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>北圻遠征</t>
+    <t>北圻远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%B3%95%E6%88%98%E4%BA%89</t>
@@ -3365,49 +3248,46 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E6%95%98%E5%88%A9%E4%BA%9E%E8%A8%97%E7%AE%A1%E5%9C%B0</t>
   </si>
   <si>
-    <t>法屬敘利亞託管地</t>
+    <t>法属叙利亚讬管地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%88%B0</t>
   </si>
   <si>
-    <t>韓戰</t>
+    <t>韩战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次中東戰爭</t>
+    <t>第二次中东战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿爾及利亞戰爭</t>
+    <t>阿尔及利亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非帝國</t>
+    <t>中非帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>海湾战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8%E9%9D%A9%E5%91%BD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>象牙海岸革命戰爭</t>
+    <t>象牙海岸革命战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%8C%97%E9%83%A8%E5%86%B2%E7%AA%81</t>
@@ -3425,25 +3305,25 @@
     <t>https://zh.wikipedia.org/wiki/2014-2015%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014-2015年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014-2015年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B%E5%8F%B2</t>
   </si>
   <si>
-    <t>法國軍事史</t>
+    <t>法国军事史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3467,7 +3347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -3816,7 +3702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I623"/>
+  <dimension ref="A1:I625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4589,7 +4475,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -4618,10 +4504,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" t="n">
         <v>10</v>
@@ -4647,10 +4533,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
         <v>8</v>
@@ -4705,10 +4591,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>12</v>
@@ -4734,10 +4620,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -4763,10 +4649,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>14</v>
@@ -4792,10 +4678,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>23</v>
@@ -4821,10 +4707,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>16</v>
@@ -4850,10 +4736,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -4879,10 +4765,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -4908,10 +4794,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4937,10 +4823,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>39</v>
@@ -4966,10 +4852,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -4995,10 +4881,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
@@ -5024,10 +4910,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -5053,10 +4939,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>14</v>
@@ -5082,10 +4968,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G44" t="n">
         <v>14</v>
@@ -6129,7 +6015,7 @@
         <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="G80" t="n">
         <v>48</v>
@@ -6155,10 +6041,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>64</v>
@@ -6213,10 +6099,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="G83" t="n">
         <v>12</v>
@@ -6242,10 +6128,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -6271,10 +6157,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -6300,10 +6186,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -6329,10 +6215,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G87" t="n">
         <v>36</v>
@@ -6358,10 +6244,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G88" t="n">
         <v>36</v>
@@ -6387,10 +6273,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -6416,10 +6302,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -6445,10 +6331,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6474,10 +6360,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G92" t="n">
         <v>111</v>
@@ -6503,10 +6389,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -6532,10 +6418,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -6561,10 +6447,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" t="n">
         <v>20</v>
@@ -6590,10 +6476,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G96" t="n">
         <v>22</v>
@@ -6619,10 +6505,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G97" t="n">
         <v>14</v>
@@ -6648,10 +6534,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -6677,10 +6563,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6706,10 +6592,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -6764,10 +6650,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -6793,10 +6679,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6822,10 +6708,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -6851,10 +6737,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6880,10 +6766,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G106" t="n">
         <v>7</v>
@@ -6909,10 +6795,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>14</v>
@@ -6938,10 +6824,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6967,10 +6853,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6996,10 +6882,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F110" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7025,10 +6911,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F111" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G111" t="n">
         <v>6</v>
@@ -7054,10 +6940,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G112" t="n">
         <v>5</v>
@@ -7083,10 +6969,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F113" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -7112,10 +6998,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -7141,10 +7027,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F115" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -7170,10 +7056,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7199,10 +7085,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7228,10 +7114,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -7257,10 +7143,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -7286,10 +7172,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7315,10 +7201,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7344,10 +7230,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F122" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7373,10 +7259,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F123" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -7402,10 +7288,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F124" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7431,10 +7317,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7489,10 +7375,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7518,10 +7404,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="G128" t="n">
         <v>5</v>
@@ -7547,10 +7433,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7576,10 +7462,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="G130" t="n">
         <v>24</v>
@@ -7605,10 +7491,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F131" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7634,10 +7520,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F132" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7663,10 +7549,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -7692,10 +7578,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F134" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -7721,10 +7607,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7750,10 +7636,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F136" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7779,10 +7665,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F137" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7808,10 +7694,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F138" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7837,10 +7723,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7866,10 +7752,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F140" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7895,10 +7781,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -7924,10 +7810,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F142" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -7953,10 +7839,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -7982,10 +7868,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -8011,10 +7897,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -8040,10 +7926,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F146" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -8069,10 +7955,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F147" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -8098,10 +7984,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -8127,10 +8013,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8156,10 +8042,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -8185,10 +8071,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8214,10 +8100,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8243,10 +8129,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8272,10 +8158,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G154" t="n">
         <v>9</v>
@@ -8301,10 +8187,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -8330,10 +8216,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8359,10 +8245,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -8388,10 +8274,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8417,10 +8303,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G159" t="n">
         <v>6</v>
@@ -8446,10 +8332,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8475,10 +8361,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G161" t="n">
         <v>28</v>
@@ -8504,10 +8390,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8533,10 +8419,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8562,10 +8448,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F164" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8591,10 +8477,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8620,10 +8506,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F166" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8649,10 +8535,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8678,10 +8564,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8707,10 +8593,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -8736,10 +8622,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8765,10 +8651,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G171" t="n">
         <v>8</v>
@@ -8794,10 +8680,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8823,10 +8709,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8852,10 +8738,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8881,10 +8767,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -8910,10 +8796,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G176" t="n">
         <v>9</v>
@@ -8939,10 +8825,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8968,10 +8854,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -8997,10 +8883,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -9026,10 +8912,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9055,10 +8941,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -9084,10 +8970,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -9113,10 +8999,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9142,10 +9028,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9171,10 +9057,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9200,10 +9086,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9229,10 +9115,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9258,10 +9144,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9287,10 +9173,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -9316,10 +9202,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F190" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9345,10 +9231,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F191" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9374,10 +9260,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9403,10 +9289,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9432,10 +9318,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9461,10 +9347,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9490,10 +9376,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G196" t="n">
         <v>6</v>
@@ -9519,10 +9405,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9548,10 +9434,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9577,10 +9463,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -9606,10 +9492,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9635,10 +9521,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9664,10 +9550,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9693,10 +9579,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -9722,10 +9608,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>17</v>
@@ -9751,10 +9637,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9780,10 +9666,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9809,10 +9695,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9838,10 +9724,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9867,10 +9753,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9896,10 +9782,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9925,10 +9811,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9954,10 +9840,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9983,10 +9869,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -10041,10 +9927,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G215" t="n">
         <v>5</v>
@@ -10070,10 +9956,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10099,10 +9985,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -10128,10 +10014,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10157,10 +10043,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -10186,10 +10072,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -10215,10 +10101,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10244,10 +10130,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -10273,10 +10159,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -10302,10 +10188,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10331,10 +10217,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10360,10 +10246,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10389,10 +10275,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -10418,10 +10304,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10447,10 +10333,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G229" t="n">
         <v>5</v>
@@ -10476,10 +10362,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10534,10 +10420,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10563,10 +10449,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G233" t="n">
         <v>8</v>
@@ -10592,10 +10478,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10621,10 +10507,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10650,10 +10536,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10679,10 +10565,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10708,10 +10594,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10737,10 +10623,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10766,10 +10652,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10795,10 +10681,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10824,10 +10710,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10853,10 +10739,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10882,10 +10768,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10911,10 +10797,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10940,10 +10826,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10969,10 +10855,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10998,10 +10884,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11027,10 +10913,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11056,10 +10942,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11085,10 +10971,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11114,10 +11000,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11143,10 +11029,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -11172,10 +11058,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11201,10 +11087,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11230,10 +11116,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11259,10 +11145,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -11288,10 +11174,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11317,10 +11203,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -11346,10 +11232,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11375,10 +11261,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -11433,10 +11319,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11462,10 +11348,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11491,10 +11377,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G265" t="n">
         <v>17</v>
@@ -11520,10 +11406,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11549,10 +11435,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G267" t="n">
         <v>17</v>
@@ -11578,10 +11464,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11607,10 +11493,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>313</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11636,10 +11522,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11665,10 +11551,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11694,10 +11580,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G272" t="n">
         <v>4</v>
@@ -11723,10 +11609,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G273" t="n">
         <v>4</v>
@@ -11752,10 +11638,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="G274" t="n">
         <v>5</v>
@@ -11781,10 +11667,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11810,10 +11696,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11839,10 +11725,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11868,10 +11754,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11897,10 +11783,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F279" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11926,10 +11812,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="F280" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11955,10 +11841,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="F281" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11984,10 +11870,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="F282" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -12013,10 +11899,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="F283" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -12042,10 +11928,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F284" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -12071,10 +11957,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F285" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12100,10 +11986,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="F286" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12129,10 +12015,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="F287" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -12158,10 +12044,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F288" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12187,10 +12073,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F289" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12216,10 +12102,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F290" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G290" t="n">
         <v>4</v>
@@ -12245,10 +12131,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F291" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -12274,10 +12160,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F292" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12303,10 +12189,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12332,10 +12218,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -12361,10 +12247,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -12390,10 +12276,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12419,10 +12305,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F297" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G297" t="n">
         <v>4</v>
@@ -12448,10 +12334,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F298" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G298" t="n">
         <v>4</v>
@@ -12477,10 +12363,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -12506,10 +12392,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="F300" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12535,10 +12421,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12564,10 +12450,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="F302" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G302" t="n">
         <v>4</v>
@@ -12593,10 +12479,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="F303" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="G303" t="n">
         <v>6</v>
@@ -12622,10 +12508,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12651,10 +12537,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -12680,10 +12566,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12709,10 +12595,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12738,10 +12624,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12767,10 +12653,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12796,10 +12682,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12825,10 +12711,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12854,10 +12740,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12883,10 +12769,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G313" t="n">
         <v>8</v>
@@ -12912,10 +12798,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12941,10 +12827,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12970,10 +12856,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>96</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12999,10 +12885,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
         <v>3</v>
@@ -13028,10 +12914,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13057,10 +12943,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>3</v>
       </c>
       <c r="G319" t="n">
         <v>4</v>
@@ -13086,10 +12972,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>24</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13115,10 +13001,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13144,10 +13030,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13173,10 +13059,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>28</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13202,10 +13088,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13231,10 +13117,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13260,10 +13146,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -13289,10 +13175,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="G327" t="n">
         <v>8</v>
@@ -13318,10 +13204,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -13347,10 +13233,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13376,10 +13262,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13434,10 +13320,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="F332" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="G332" t="n">
         <v>55</v>
@@ -13463,10 +13349,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="F333" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="G333" t="n">
         <v>4</v>
@@ -13492,10 +13378,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="F334" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13521,10 +13407,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="F335" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13550,10 +13436,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="F336" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="G336" t="n">
         <v>3</v>
@@ -13579,10 +13465,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="F337" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13608,10 +13494,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="F338" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13637,10 +13523,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="F339" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13666,10 +13552,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="F340" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13695,10 +13581,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13724,10 +13610,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="F342" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13753,10 +13639,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="F343" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13782,10 +13668,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F344" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13811,10 +13697,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="F345" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13840,10 +13726,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="F346" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -13869,10 +13755,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="F347" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13898,10 +13784,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="F348" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13927,10 +13813,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="F349" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13956,10 +13842,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="F350" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13985,10 +13871,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="F351" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14014,10 +13900,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="F352" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14043,10 +13929,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14072,10 +13958,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14101,10 +13987,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14130,10 +14016,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14159,10 +14045,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14188,10 +14074,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>22</v>
       </c>
       <c r="G358" t="n">
         <v>4</v>
@@ -14217,10 +14103,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14246,10 +14132,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14275,10 +14161,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14304,10 +14190,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14333,10 +14219,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="G363" t="n">
         <v>12</v>
@@ -14362,10 +14248,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="F364" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14391,10 +14277,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F365" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14420,10 +14306,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="F366" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="G366" t="n">
         <v>4</v>
@@ -14449,10 +14335,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="F367" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14478,10 +14364,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F368" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G368" t="n">
         <v>4</v>
@@ -14507,10 +14393,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="F369" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14536,10 +14422,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="F370" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14565,10 +14451,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="F371" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G371" t="n">
         <v>16</v>
@@ -14594,10 +14480,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F372" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G372" t="n">
         <v>8</v>
@@ -14623,10 +14509,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="G373" t="n">
         <v>38</v>
@@ -14652,10 +14538,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F374" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14681,10 +14567,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="F375" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14710,10 +14596,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14739,10 +14625,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F377" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14768,10 +14654,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="F378" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14797,10 +14683,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="F379" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14826,10 +14712,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="F380" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14855,10 +14741,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="F381" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14884,10 +14770,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F382" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14913,10 +14799,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F383" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14942,10 +14828,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F384" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14971,10 +14857,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="F385" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15000,10 +14886,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="F386" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -15029,10 +14915,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F387" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15058,10 +14944,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F388" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15087,10 +14973,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F389" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15116,10 +15002,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="F390" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -15145,10 +15031,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F391" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15174,10 +15060,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="F392" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15203,10 +15089,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="F393" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15232,10 +15118,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F394" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15290,10 +15176,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="F396" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15319,10 +15205,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="F397" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="G397" t="n">
         <v>7</v>
@@ -15348,10 +15234,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="F398" t="s">
-        <v>758</v>
+        <v>670</v>
       </c>
       <c r="G398" t="n">
         <v>7</v>
@@ -15377,10 +15263,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="F399" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G399" t="n">
         <v>9</v>
@@ -15435,10 +15321,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G401" t="n">
         <v>40</v>
@@ -15464,10 +15350,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="F402" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15493,10 +15379,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="F403" t="s">
-        <v>764</v>
+        <v>597</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15522,10 +15408,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="F404" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15551,10 +15437,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="F405" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15580,10 +15466,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F406" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15609,10 +15495,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="F407" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15638,10 +15524,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="F408" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15667,10 +15553,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="F409" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15696,10 +15582,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="F410" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15725,10 +15611,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F411" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15754,10 +15640,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F412" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15783,10 +15669,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="F413" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15812,10 +15698,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="F414" t="s">
-        <v>784</v>
+        <v>6</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15899,10 +15785,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="F417" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15957,10 +15843,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="F419" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15986,10 +15872,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="F420" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16015,10 +15901,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="F421" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16044,10 +15930,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="F422" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16073,10 +15959,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="F423" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16102,10 +15988,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="F424" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="G424" t="n">
         <v>6</v>
@@ -16131,10 +16017,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F425" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16160,10 +16046,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F426" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G426" t="n">
         <v>5</v>
@@ -16189,10 +16075,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="F427" t="s">
-        <v>798</v>
+        <v>55</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16218,10 +16104,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="F428" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16247,10 +16133,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="F429" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16276,10 +16162,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="F430" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16305,10 +16191,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="F431" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16334,10 +16220,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="F432" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16363,10 +16249,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F433" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16392,10 +16278,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16421,10 +16307,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F435" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16450,10 +16336,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F436" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G436" t="n">
         <v>4</v>
@@ -16479,10 +16365,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="F437" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16508,10 +16394,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F438" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16537,10 +16423,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F439" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16566,10 +16452,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="F440" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16595,10 +16481,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F441" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16624,10 +16510,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="F442" t="s">
-        <v>820</v>
+        <v>79</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16653,10 +16539,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="F443" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16682,10 +16568,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="F444" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16711,10 +16597,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="F445" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16740,10 +16626,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F446" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16769,10 +16655,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="F447" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16798,10 +16684,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="F448" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16827,10 +16713,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="F449" t="s">
-        <v>830</v>
+        <v>262</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16856,10 +16742,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="F450" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16885,10 +16771,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="F451" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16914,10 +16800,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="F452" t="s">
-        <v>836</v>
+        <v>319</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16943,10 +16829,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>837</v>
+        <v>809</v>
       </c>
       <c r="F453" t="s">
-        <v>838</v>
+        <v>333</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16972,10 +16858,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="F454" t="s">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17001,10 +16887,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>841</v>
+        <v>812</v>
       </c>
       <c r="F455" t="s">
-        <v>842</v>
+        <v>813</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17030,10 +16916,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F456" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17059,10 +16945,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>843</v>
+        <v>814</v>
       </c>
       <c r="F457" t="s">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17088,10 +16974,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>845</v>
+        <v>816</v>
       </c>
       <c r="F458" t="s">
-        <v>846</v>
+        <v>535</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17175,10 +17061,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F461" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17204,10 +17090,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>847</v>
+        <v>817</v>
       </c>
       <c r="F462" t="s">
-        <v>848</v>
+        <v>387</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17233,10 +17119,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="F463" t="s">
-        <v>850</v>
+        <v>529</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17262,10 +17148,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="F464" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17291,10 +17177,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F465" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17320,10 +17206,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="F466" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17349,10 +17235,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="F467" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17378,10 +17264,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="F468" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17407,10 +17293,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="F469" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17436,10 +17322,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="F470" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17465,10 +17351,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="F471" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17494,10 +17380,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="F472" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17523,10 +17409,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="F473" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17552,10 +17438,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="F474" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17581,10 +17467,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="F475" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17610,10 +17496,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="F476" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17639,10 +17525,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="F477" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17668,10 +17554,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="F478" t="s">
-        <v>878</v>
+        <v>454</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17697,10 +17583,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
       <c r="F479" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17726,10 +17612,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="F480" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17755,10 +17641,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="F481" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17784,10 +17670,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="F482" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17813,10 +17699,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="F483" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17842,10 +17728,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="F484" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17871,7 +17757,7 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F485" t="s">
         <v>0</v>
@@ -17900,10 +17786,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="F486" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17929,10 +17815,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="F487" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17958,10 +17844,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="F488" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17987,10 +17873,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="F489" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18016,10 +17902,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="F490" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18045,10 +17931,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
       <c r="F491" t="s">
-        <v>902</v>
+        <v>8</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18074,10 +17960,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
       <c r="F492" t="s">
-        <v>904</v>
+        <v>870</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18103,10 +17989,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>905</v>
+        <v>871</v>
       </c>
       <c r="F493" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18132,10 +18018,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>907</v>
+        <v>873</v>
       </c>
       <c r="F494" t="s">
-        <v>908</v>
+        <v>874</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18161,10 +18047,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>909</v>
+        <v>875</v>
       </c>
       <c r="F495" t="s">
-        <v>910</v>
+        <v>876</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18190,7 +18076,7 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="F496" t="s">
         <v>0</v>
@@ -18248,10 +18134,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
       <c r="F498" t="s">
-        <v>912</v>
+        <v>878</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18277,10 +18163,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="F499" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18306,10 +18192,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="F500" t="s">
-        <v>916</v>
+        <v>882</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18335,10 +18221,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="F501" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18364,10 +18250,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>917</v>
+        <v>883</v>
       </c>
       <c r="F502" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18393,10 +18279,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>919</v>
+        <v>885</v>
       </c>
       <c r="F503" t="s">
-        <v>920</v>
+        <v>886</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18422,10 +18308,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>921</v>
+        <v>887</v>
       </c>
       <c r="F504" t="s">
-        <v>922</v>
+        <v>888</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18451,10 +18337,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
       <c r="F505" t="s">
-        <v>924</v>
+        <v>890</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18480,10 +18366,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
       <c r="F506" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18509,10 +18395,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>927</v>
+        <v>893</v>
       </c>
       <c r="F507" t="s">
-        <v>928</v>
+        <v>894</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18538,10 +18424,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>929</v>
+        <v>895</v>
       </c>
       <c r="F508" t="s">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18567,10 +18453,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>931</v>
+        <v>897</v>
       </c>
       <c r="F509" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
       <c r="G509" t="n">
         <v>4</v>
@@ -18596,10 +18482,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="F510" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18625,10 +18511,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="F511" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18654,10 +18540,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="F512" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18683,10 +18569,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="F513" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18712,10 +18598,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
       <c r="F514" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18741,10 +18627,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="F515" t="s">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18770,10 +18656,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="F516" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18799,10 +18685,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="F517" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18828,10 +18714,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
       <c r="F518" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18857,10 +18743,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="F519" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18886,10 +18772,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>953</v>
+        <v>919</v>
       </c>
       <c r="F520" t="s">
-        <v>954</v>
+        <v>920</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -18915,10 +18801,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
       <c r="F521" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18944,10 +18830,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
       <c r="F522" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18973,10 +18859,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>959</v>
+        <v>925</v>
       </c>
       <c r="F523" t="s">
-        <v>960</v>
+        <v>926</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19002,10 +18888,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>961</v>
+        <v>927</v>
       </c>
       <c r="F524" t="s">
-        <v>962</v>
+        <v>928</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19031,10 +18917,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>963</v>
+        <v>929</v>
       </c>
       <c r="F525" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19060,10 +18946,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>965</v>
+        <v>931</v>
       </c>
       <c r="F526" t="s">
-        <v>966</v>
+        <v>932</v>
       </c>
       <c r="G526" t="n">
         <v>2</v>
@@ -19089,10 +18975,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="F527" t="s">
-        <v>968</v>
+        <v>934</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19118,10 +19004,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
       <c r="F528" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19147,10 +19033,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>971</v>
+        <v>937</v>
       </c>
       <c r="F529" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19176,10 +19062,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>973</v>
+        <v>939</v>
       </c>
       <c r="F530" t="s">
-        <v>974</v>
+        <v>940</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19205,10 +19091,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>975</v>
+        <v>941</v>
       </c>
       <c r="F531" t="s">
-        <v>976</v>
+        <v>942</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19234,10 +19120,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
       <c r="F532" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19263,10 +19149,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
       <c r="F533" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19292,10 +19178,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>981</v>
+        <v>947</v>
       </c>
       <c r="F534" t="s">
-        <v>982</v>
+        <v>948</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19321,10 +19207,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="F535" t="s">
-        <v>984</v>
+        <v>950</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19350,10 +19236,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
       <c r="F536" t="s">
-        <v>986</v>
+        <v>952</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19379,10 +19265,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="F537" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
       <c r="G537" t="n">
         <v>2</v>
@@ -19408,10 +19294,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>989</v>
+        <v>955</v>
       </c>
       <c r="F538" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19437,10 +19323,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>991</v>
+        <v>957</v>
       </c>
       <c r="F539" t="s">
-        <v>992</v>
+        <v>958</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19466,10 +19352,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>993</v>
+        <v>959</v>
       </c>
       <c r="F540" t="s">
-        <v>994</v>
+        <v>960</v>
       </c>
       <c r="G540" t="n">
         <v>2</v>
@@ -19495,10 +19381,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>995</v>
+        <v>961</v>
       </c>
       <c r="F541" t="s">
-        <v>996</v>
+        <v>962</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19524,10 +19410,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>997</v>
+        <v>963</v>
       </c>
       <c r="F542" t="s">
-        <v>998</v>
+        <v>964</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19553,10 +19439,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="F543" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19582,10 +19468,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="F544" t="s">
-        <v>1002</v>
+        <v>968</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19611,10 +19497,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1003</v>
+        <v>969</v>
       </c>
       <c r="F545" t="s">
-        <v>1004</v>
+        <v>970</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19640,10 +19526,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1005</v>
+        <v>971</v>
       </c>
       <c r="F546" t="s">
-        <v>1006</v>
+        <v>972</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19669,10 +19555,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1007</v>
+        <v>973</v>
       </c>
       <c r="F547" t="s">
-        <v>1008</v>
+        <v>974</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19698,10 +19584,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1009</v>
+        <v>975</v>
       </c>
       <c r="F548" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -19727,10 +19613,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
       <c r="F549" t="s">
-        <v>1012</v>
+        <v>978</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19756,10 +19642,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1013</v>
+        <v>979</v>
       </c>
       <c r="F550" t="s">
-        <v>1014</v>
+        <v>974</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19785,10 +19671,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1015</v>
+        <v>980</v>
       </c>
       <c r="F551" t="s">
-        <v>1016</v>
+        <v>981</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19814,10 +19700,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1017</v>
+        <v>982</v>
       </c>
       <c r="F552" t="s">
-        <v>1018</v>
+        <v>983</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19843,10 +19729,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1019</v>
+        <v>984</v>
       </c>
       <c r="F553" t="s">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -19872,10 +19758,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1021</v>
+        <v>986</v>
       </c>
       <c r="F554" t="s">
-        <v>1022</v>
+        <v>987</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19901,10 +19787,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1023</v>
+        <v>988</v>
       </c>
       <c r="F555" t="s">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19930,10 +19816,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="F556" t="s">
-        <v>1026</v>
+        <v>991</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19959,10 +19845,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1027</v>
+        <v>992</v>
       </c>
       <c r="F557" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19988,10 +19874,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="F558" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20017,10 +19903,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1031</v>
+        <v>996</v>
       </c>
       <c r="F559" t="s">
-        <v>1032</v>
+        <v>997</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20046,10 +19932,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1033</v>
+        <v>998</v>
       </c>
       <c r="F560" t="s">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20075,10 +19961,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1035</v>
+        <v>1000</v>
       </c>
       <c r="F561" t="s">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20104,10 +19990,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1037</v>
+        <v>1002</v>
       </c>
       <c r="F562" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20133,10 +20019,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="F563" t="s">
-        <v>1040</v>
+        <v>1005</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20162,10 +20048,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="F564" t="s">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20191,10 +20077,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1043</v>
+        <v>1008</v>
       </c>
       <c r="F565" t="s">
-        <v>1044</v>
+        <v>1009</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20220,10 +20106,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1045</v>
+        <v>1010</v>
       </c>
       <c r="F566" t="s">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20249,10 +20135,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
       <c r="F567" t="s">
-        <v>1048</v>
+        <v>1013</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20278,10 +20164,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="F568" t="s">
-        <v>1050</v>
+        <v>1015</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20307,10 +20193,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1051</v>
+        <v>1016</v>
       </c>
       <c r="F569" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="G569" t="n">
         <v>4</v>
@@ -20336,10 +20222,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1053</v>
+        <v>1018</v>
       </c>
       <c r="F570" t="s">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20365,10 +20251,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1013</v>
+        <v>979</v>
       </c>
       <c r="F571" t="s">
-        <v>1014</v>
+        <v>974</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20394,10 +20280,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="F572" t="s">
-        <v>1056</v>
+        <v>1021</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20423,10 +20309,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1057</v>
+        <v>1022</v>
       </c>
       <c r="F573" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20452,10 +20338,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="F574" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20481,10 +20367,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="F575" t="s">
-        <v>1062</v>
+        <v>981</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20510,10 +20396,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1063</v>
+        <v>1027</v>
       </c>
       <c r="F576" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20539,10 +20425,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1065</v>
+        <v>1029</v>
       </c>
       <c r="F577" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="G577" t="n">
         <v>3</v>
@@ -20568,10 +20454,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="F578" t="s">
-        <v>1068</v>
+        <v>537</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20597,10 +20483,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1069</v>
+        <v>1032</v>
       </c>
       <c r="F579" t="s">
-        <v>1070</v>
+        <v>266</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20626,10 +20512,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1071</v>
+        <v>1033</v>
       </c>
       <c r="F580" t="s">
-        <v>1072</v>
+        <v>1034</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20655,10 +20541,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1073</v>
+        <v>1035</v>
       </c>
       <c r="F581" t="s">
-        <v>1074</v>
+        <v>1036</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20684,10 +20570,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="F582" t="s">
-        <v>1076</v>
+        <v>1038</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20713,10 +20599,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1077</v>
+        <v>1039</v>
       </c>
       <c r="F583" t="s">
-        <v>1078</v>
+        <v>1040</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20742,10 +20628,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1079</v>
+        <v>1041</v>
       </c>
       <c r="F584" t="s">
-        <v>1080</v>
+        <v>1042</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20771,10 +20657,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1053</v>
+        <v>1018</v>
       </c>
       <c r="F585" t="s">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20800,10 +20686,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1081</v>
+        <v>1043</v>
       </c>
       <c r="F586" t="s">
-        <v>1082</v>
+        <v>1044</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20829,10 +20715,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1083</v>
+        <v>1045</v>
       </c>
       <c r="F587" t="s">
-        <v>1084</v>
+        <v>1046</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20858,10 +20744,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1085</v>
+        <v>1047</v>
       </c>
       <c r="F588" t="s">
-        <v>1086</v>
+        <v>1048</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -20887,10 +20773,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1009</v>
+        <v>975</v>
       </c>
       <c r="F589" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -20916,10 +20802,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1087</v>
+        <v>1049</v>
       </c>
       <c r="F590" t="s">
-        <v>1088</v>
+        <v>1050</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -20945,10 +20831,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1089</v>
+        <v>1051</v>
       </c>
       <c r="F591" t="s">
-        <v>1090</v>
+        <v>1052</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -20974,10 +20860,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1091</v>
+        <v>1053</v>
       </c>
       <c r="F592" t="s">
-        <v>1092</v>
+        <v>1054</v>
       </c>
       <c r="G592" t="n">
         <v>2</v>
@@ -21003,10 +20889,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1093</v>
+        <v>1055</v>
       </c>
       <c r="F593" t="s">
-        <v>1094</v>
+        <v>1056</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21032,10 +20918,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1095</v>
+        <v>1057</v>
       </c>
       <c r="F594" t="s">
-        <v>1096</v>
+        <v>1058</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21061,10 +20947,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1097</v>
+        <v>1059</v>
       </c>
       <c r="F595" t="s">
-        <v>1098</v>
+        <v>1060</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21090,10 +20976,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>1099</v>
+        <v>1061</v>
       </c>
       <c r="F596" t="s">
-        <v>1100</v>
+        <v>910</v>
       </c>
       <c r="G596" t="n">
         <v>1</v>
@@ -21119,10 +21005,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1101</v>
+        <v>1062</v>
       </c>
       <c r="F597" t="s">
-        <v>1102</v>
+        <v>1063</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21148,10 +21034,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
       <c r="F598" t="s">
-        <v>1104</v>
+        <v>1065</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21177,10 +21063,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1105</v>
+        <v>1066</v>
       </c>
       <c r="F599" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21206,10 +21092,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
       <c r="F600" t="s">
-        <v>1108</v>
+        <v>1069</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21235,10 +21121,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1109</v>
+        <v>1070</v>
       </c>
       <c r="F601" t="s">
-        <v>1110</v>
+        <v>1071</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21264,10 +21150,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1111</v>
+        <v>1072</v>
       </c>
       <c r="F602" t="s">
-        <v>1112</v>
+        <v>1073</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21293,10 +21179,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1113</v>
+        <v>1074</v>
       </c>
       <c r="F603" t="s">
-        <v>1114</v>
+        <v>1075</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21322,10 +21208,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
       <c r="F604" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="G604" t="n">
         <v>2</v>
@@ -21351,10 +21237,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1115</v>
+        <v>1076</v>
       </c>
       <c r="F605" t="s">
-        <v>1116</v>
+        <v>1077</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21380,10 +21266,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1117</v>
+        <v>1078</v>
       </c>
       <c r="F606" t="s">
-        <v>1118</v>
+        <v>1079</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21409,10 +21295,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1119</v>
+        <v>1080</v>
       </c>
       <c r="F607" t="s">
-        <v>1120</v>
+        <v>1081</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21438,10 +21324,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1121</v>
+        <v>1082</v>
       </c>
       <c r="F608" t="s">
-        <v>1122</v>
+        <v>1083</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21467,10 +21353,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1123</v>
+        <v>1084</v>
       </c>
       <c r="F609" t="s">
-        <v>1124</v>
+        <v>1085</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21496,10 +21382,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1125</v>
+        <v>1086</v>
       </c>
       <c r="F610" t="s">
-        <v>1126</v>
+        <v>1087</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21525,10 +21411,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1127</v>
+        <v>1088</v>
       </c>
       <c r="F611" t="s">
-        <v>1128</v>
+        <v>942</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21554,10 +21440,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
       <c r="F612" t="s">
-        <v>986</v>
+        <v>952</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21583,10 +21469,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1129</v>
+        <v>1089</v>
       </c>
       <c r="F613" t="s">
-        <v>1130</v>
+        <v>1090</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21612,10 +21498,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1131</v>
+        <v>1091</v>
       </c>
       <c r="F614" t="s">
-        <v>1132</v>
+        <v>1092</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21641,10 +21527,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1133</v>
+        <v>1093</v>
       </c>
       <c r="F615" t="s">
-        <v>1134</v>
+        <v>1094</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21670,10 +21556,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1135</v>
+        <v>1095</v>
       </c>
       <c r="F616" t="s">
-        <v>1136</v>
+        <v>1096</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21699,10 +21585,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1137</v>
+        <v>1097</v>
       </c>
       <c r="F617" t="s">
-        <v>1138</v>
+        <v>1098</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21728,10 +21614,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1139</v>
+        <v>1099</v>
       </c>
       <c r="F618" t="s">
-        <v>1140</v>
+        <v>1100</v>
       </c>
       <c r="G618" t="n">
         <v>2</v>
@@ -21757,10 +21643,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1141</v>
+        <v>1101</v>
       </c>
       <c r="F619" t="s">
-        <v>1142</v>
+        <v>1102</v>
       </c>
       <c r="G619" t="n">
         <v>3</v>
@@ -21786,10 +21672,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1143</v>
+        <v>1103</v>
       </c>
       <c r="F620" t="s">
-        <v>1144</v>
+        <v>1104</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -21815,10 +21701,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="F621" t="s">
-        <v>1146</v>
+        <v>1106</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -21844,10 +21730,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1147</v>
+        <v>1107</v>
       </c>
       <c r="F622" t="s">
-        <v>1148</v>
+        <v>1108</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -21873,10 +21759,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1149</v>
+        <v>1109</v>
       </c>
       <c r="F623" t="s">
-        <v>1150</v>
+        <v>1110</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -21885,6 +21771,64 @@
         <v>4</v>
       </c>
       <c r="I623" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="s">
+        <v>0</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1</v>
+      </c>
+      <c r="D624" t="n">
+        <v>623</v>
+      </c>
+      <c r="E624" t="s">
+        <v>53</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G624" t="n">
+        <v>25</v>
+      </c>
+      <c r="H624" t="s">
+        <v>4</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="s">
+        <v>0</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1</v>
+      </c>
+      <c r="D625" t="n">
+        <v>624</v>
+      </c>
+      <c r="E625" t="s">
+        <v>53</v>
+      </c>
+      <c r="F625" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1</v>
+      </c>
+      <c r="H625" t="s">
+        <v>4</v>
+      </c>
+      <c r="I625" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/第一次世界大战_intext.xlsx
+++ b/xlsx/第一次世界大战_intext.xlsx
@@ -29,7 +29,7 @@
     <t>第二次世界大战</t>
   </si>
   <si>
-    <t>政策_政策_美國_第一次世界大战</t>
+    <t>体育运动_体育运动_纳粹德国_第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%88%B0%E7%B7%9A_(%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
@@ -692,10 +692,10 @@
     <t>巴尔干半岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>奧斯曼帝國</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>鄂圖曼帝國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81</t>
@@ -1100,12 +1100,6 @@
     <t>黑手黨</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E7%86%B1%E7%AA%A9%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>薩拉熱窩事件</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E9%80%9A%E7%89%92</t>
   </si>
   <si>
@@ -1638,6 +1632,12 @@
   </si>
   <si>
     <t>輕巡洋艦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A7%86%E7%99%BB%E5%8F%B7%E8%BD%BB%E5%B7%A1%E6%B4%8B%E8%88%B0_(1908%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>埃姆登号轻巡洋舰 (1908年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
@@ -6277,7 +6277,7 @@
         <v>156</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -6712,7 +6712,7 @@
         <v>184</v>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6770,7 +6770,7 @@
         <v>186</v>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -6857,7 +6857,7 @@
         <v>156</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -7379,7 +7379,7 @@
         <v>226</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -9438,7 +9438,7 @@
         <v>362</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -9467,7 +9467,7 @@
         <v>364</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9496,7 +9496,7 @@
         <v>366</v>
       </c>
       <c r="G196" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9525,7 +9525,7 @@
         <v>368</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9612,7 +9612,7 @@
         <v>374</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9641,7 +9641,7 @@
         <v>376</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9670,7 +9670,7 @@
         <v>378</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -9699,7 +9699,7 @@
         <v>380</v>
       </c>
       <c r="G203" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9728,7 +9728,7 @@
         <v>382</v>
       </c>
       <c r="G204" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9873,7 +9873,7 @@
         <v>392</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9931,7 +9931,7 @@
         <v>396</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9960,7 +9960,7 @@
         <v>398</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9983,13 +9983,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -10012,13 +10012,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>101</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -10047,7 +10047,7 @@
         <v>402</v>
       </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -10076,7 +10076,7 @@
         <v>404</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -10105,7 +10105,7 @@
         <v>406</v>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -10134,7 +10134,7 @@
         <v>408</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -10163,7 +10163,7 @@
         <v>410</v>
       </c>
       <c r="G219" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -10192,7 +10192,7 @@
         <v>412</v>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10221,7 +10221,7 @@
         <v>414</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -10250,7 +10250,7 @@
         <v>416</v>
       </c>
       <c r="G222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -10279,7 +10279,7 @@
         <v>418</v>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -10366,7 +10366,7 @@
         <v>424</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10395,7 +10395,7 @@
         <v>426</v>
       </c>
       <c r="G227" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10424,7 +10424,7 @@
         <v>428</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10453,7 +10453,7 @@
         <v>430</v>
       </c>
       <c r="G229" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10476,10 +10476,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>125</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>126</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10505,10 +10505,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>125</v>
+        <v>431</v>
       </c>
       <c r="F231" t="s">
-        <v>126</v>
+        <v>432</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10540,7 +10540,7 @@
         <v>434</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -10569,7 +10569,7 @@
         <v>436</v>
       </c>
       <c r="G233" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -10598,7 +10598,7 @@
         <v>438</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10743,7 +10743,7 @@
         <v>448</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -10772,7 +10772,7 @@
         <v>450</v>
       </c>
       <c r="G240" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -10801,7 +10801,7 @@
         <v>452</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10830,7 +10830,7 @@
         <v>454</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10917,7 +10917,7 @@
         <v>460</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10946,7 +10946,7 @@
         <v>462</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -11120,7 +11120,7 @@
         <v>474</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -11149,7 +11149,7 @@
         <v>476</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -11236,7 +11236,7 @@
         <v>482</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -11265,7 +11265,7 @@
         <v>484</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -11294,7 +11294,7 @@
         <v>486</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11375,13 +11375,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>123</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>124</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -11404,10 +11404,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>123</v>
+        <v>491</v>
       </c>
       <c r="F262" t="s">
-        <v>124</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11468,7 +11468,7 @@
         <v>496</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -11497,7 +11497,7 @@
         <v>498</v>
       </c>
       <c r="G265" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -11526,7 +11526,7 @@
         <v>500</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -11555,7 +11555,7 @@
         <v>502</v>
       </c>
       <c r="G267" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -11671,7 +11671,7 @@
         <v>510</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11729,7 +11729,7 @@
         <v>514</v>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11758,7 +11758,7 @@
         <v>516</v>
       </c>
       <c r="G274" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11961,7 +11961,7 @@
         <v>530</v>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11990,7 +11990,7 @@
         <v>532</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -12019,7 +12019,7 @@
         <v>534</v>
       </c>
       <c r="G283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -12048,7 +12048,7 @@
         <v>536</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -13782,10 +13782,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F344" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -16160,10 +16160,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F426" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G426" t="n">
         <v>5</v>
@@ -17030,10 +17030,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F456" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17175,10 +17175,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F461" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17291,10 +17291,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F465" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
